--- a/octave-workspace.xlsx
+++ b/octave-workspace.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="33120" yWindow="8160" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -382,13 +382,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2342</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1351</v>
       </c>
     </row>
   </sheetData>
